--- a/Question.xlsx
+++ b/Question.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\duancuoikhoa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168"/>
   </bookViews>
   <sheets>
-    <sheet name="QuestionSheet" r:id="rId3" sheetId="1"/>
+    <sheet name="QuestionSheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Stt</t>
   </si>
@@ -32,26 +39,49 @@
     <t>Java Core</t>
   </si>
   <si>
-    <t>Một class đại diện cho 1 loại đối tượng. Nó có thể được hiểu giống như 1 bản định nghĩa của đối tượng.</t>
-  </si>
-  <si>
     <t>Thế nào là đối tượng?</t>
   </si>
   <si>
     <t>OOP</t>
   </si>
   <si>
-    <t>Đối tượng là một thể hiện của lớp. Nó bao gồm các thuộc tính và phương thức.</t>
+    <t>Thế nào là tính đóng gói?</t>
+  </si>
+  <si>
+    <t>Có mấy loại access modifier?</t>
+  </si>
+  <si>
+    <t>Thế nào là tính đa hình?</t>
+  </si>
+  <si>
+    <t>Phân biệt override và overload?</t>
+  </si>
+  <si>
+    <t>Overide là việc lớp con ghi đè phương thức của lớp cha. Overload là việc một class sử dụng được cùng một phương thức nhưng khác nhau biến truyền vào hàm</t>
+  </si>
+  <si>
+    <t>Đại diện cho 1 loại đối tượng. Nó có thể được hiểu giống như 1 bản định nghĩa của đối tượng.</t>
+  </si>
+  <si>
+    <t>Là một thể hiện của lớp. Nó bao gồm các thuộc tính và phương thức.</t>
+  </si>
+  <si>
+    <t>Là việc che giấu các thông tin quan trọng của 1 lớp. Nó được thể hiển thông qua các access modifier như private, public, default, protected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có 4 loại là: private, protected, default, public. </t>
+  </si>
+  <si>
+    <t>Là khi một hành động có thể được thực hiện theo nhiều cách khác nhau. Nó được thể hiện thông qua override và overload.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,7 +93,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -81,18 +111,298 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="4" max="4" width="132.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -106,9 +416,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -117,24 +427,80 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Question.xlsx
+++ b/Question.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Stt</t>
   </si>
@@ -26,19 +26,64 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>qưeqtt</t>
+    <t>Thế nào là lập trình hướng đối tượng ?</t>
+  </si>
+  <si>
+    <t>OOP - Object Oriented</t>
+  </si>
+  <si>
+    <t>là một phương pháp lập trình dựa trên khái niệm về lớp và đối tượng. Nó tập trung vào các đối tượng thao tác hơn là logic để thao tác chúng, giúp code dễ quản lý, tái sử dụng được và dễ bảo trì.</t>
+  </si>
+  <si>
+    <t>Thế nào là lớp?</t>
   </si>
   <si>
     <t>Java Core</t>
   </si>
   <si>
-    <t>qrqeqwty</t>
-  </si>
-  <si>
-    <t>qưqtyy</t>
-  </si>
-  <si>
-    <t>qưerqrqr</t>
+    <t>đại diện cho 1 loại đối tượng. Nó có thể được hiểu giống như 1 bản định nghĩa của đối tượng.</t>
+  </si>
+  <si>
+    <t>Thế nào là đối tượng?</t>
+  </si>
+  <si>
+    <t>là một thể hiện của lớp. Nó bao gồm các thuộc tính và phương thức.</t>
+  </si>
+  <si>
+    <t>Thế nào là tính đóng gói?</t>
+  </si>
+  <si>
+    <t>là việc che giấu các thông tin quan trọng của 1 lớp. Nó được thể hiển thông qua các access modifier như private, public, default, protected</t>
+  </si>
+  <si>
+    <t>Thế nào là tính đa hình?</t>
+  </si>
+  <si>
+    <t>là khi một hành động có thể được thực hiện theo nhiều cách khác nhau. Nó được thể hiện thông qua override và overload.</t>
+  </si>
+  <si>
+    <t>Thế nào là tính kế thừa?</t>
+  </si>
+  <si>
+    <t>Là khả năng tái sử dụng lại thuộc tính và phương thức của một lớp. Thể hiện thông qua từ khóa extend.</t>
+  </si>
+  <si>
+    <t>Thế nào là static?</t>
+  </si>
+  <si>
+    <t>Những hàm, phương thức có từ khóa này sẽ thuộc về lớp có thể được truy cập trực tiếp từ Class mà không cần phải tạo đối tượng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thế nào là final?</t>
+  </si>
+  <si>
+    <t>Những thuộc tính final sẽ không thể thay đổi giá trị của nó Những phương thức final sẽ không thể overide ở lớp con Những class final sẽ không thể kế thừa được</t>
+  </si>
+  <si>
+    <t>Phân biệt override và overload?</t>
+  </si>
+  <si>
+    <t>qưeqrqt</t>
   </si>
 </sst>
 </file>
@@ -83,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,10 +170,122 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
